--- a/Физическая модель.xlsx
+++ b/Физическая модель.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surok\Documents\BD Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surok\Documents\BD Project\Airport_DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
   <si>
     <t>Название</t>
   </si>
@@ -299,9 +299,6 @@
     <t>plane_model</t>
   </si>
   <si>
-    <t>plane_constuction_num</t>
-  </si>
-  <si>
     <t>airport_depature</t>
   </si>
   <si>
@@ -602,9 +599,6 @@
     <t>Год основания</t>
   </si>
   <si>
-    <t>BETWEEN (1800, 2200)</t>
-  </si>
-  <si>
     <t>Сайт авиакомпании</t>
   </si>
   <si>
@@ -620,9 +614,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>construction_num</t>
-  </si>
-  <si>
     <t>issue_year</t>
   </si>
   <si>
@@ -659,9 +650,6 @@
     <t>Время окончания актуальности данных</t>
   </si>
   <si>
-    <t>NOT NULL, BETWEEN(1800, 2200)</t>
-  </si>
-  <si>
     <t>Airline_and_arrival</t>
   </si>
   <si>
@@ -687,6 +675,21 @@
   </si>
   <si>
     <t>Airline_and_depature</t>
+  </si>
+  <si>
+    <t>plane_tail_num</t>
+  </si>
+  <si>
+    <t>tail_num</t>
+  </si>
+  <si>
+    <t>NOT NULL,  &gt;=1900</t>
+  </si>
+  <si>
+    <t>&gt;=01.01.1900</t>
+  </si>
+  <si>
+    <t>&gt;= 1800</t>
   </si>
 </sst>
 </file>
@@ -965,15 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -993,6 +987,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,12 +1292,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1426,12 +1429,12 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
@@ -1448,21 +1451,21 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1471,12 +1474,12 @@
       <c r="C16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1485,12 +1488,12 @@
       <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1499,12 +1502,12 @@
       <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1513,12 +1516,12 @@
       <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1527,21 +1530,21 @@
       <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1555,12 +1558,12 @@
       <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
@@ -1577,127 +1580,127 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>65</v>
+      <c r="D32" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>56</v>
+      <c r="A33" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>78</v>
+      <c r="D33" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>73</v>
+      <c r="D34" s="23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,12 +1716,12 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
@@ -1735,125 +1738,125 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="B43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="C43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="22" t="s">
+      <c r="C46" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
+      <c r="A49" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
@@ -1870,91 +1873,91 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="A51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>81</v>
+      <c r="A52" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>82</v>
+      <c r="A53" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="20"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>83</v>
+      <c r="A54" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="24"/>
+      <c r="C56" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
@@ -1971,121 +1974,125 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="16" t="s">
+      <c r="A61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>15</v>
+      <c r="D62" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>96</v>
+      <c r="A63" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>108</v>
+      <c r="D63" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
-        <v>97</v>
+      <c r="A64" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D64" s="17" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>98</v>
+      <c r="A65" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="20"/>
+      <c r="D65" s="17" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>99</v>
+      <c r="A67" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="24" t="s">
+      <c r="A68" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
     </row>
     <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
@@ -2102,53 +2109,53 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="16" t="s">
+      <c r="A73" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>111</v>
+      <c r="A74" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="24"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
@@ -2165,44 +2172,44 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="16" t="s">
+      <c r="A80" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
-        <v>111</v>
+      <c r="A81" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="24"/>
+      <c r="D82" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
